--- a/WangQ囚徒健身记录.xlsx
+++ b/WangQ囚徒健身记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,6 +12,7 @@
     <sheet name="数据项" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$I$100</definedName>
     <definedName name="倒立撑">数据项!$G$2+数据项!$G$4:$G$13</definedName>
     <definedName name="俯卧撑">数据项!$B$4:$B$13</definedName>
     <definedName name="举腿">数据项!$E$4:$E$13</definedName>
@@ -19,12 +20,12 @@
     <definedName name="深蹲">数据项!$C$4:$C$13</definedName>
     <definedName name="引体向上">数据项!$D$4:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,7 +323,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肩伤</t>
+    <t>肩旧伤治疗减少组数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +462,47 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -559,6 +600,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1022,13 +1083,14 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
@@ -1081,7 +1143,7 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H33" si="0">IF(WEEKNUM(A2)&gt;0,WEEKNUM(A2),"")</f>
+        <f t="shared" ref="H2:H29" si="0">IF(WEEKNUM(A2)&gt;0,WEEKNUM(A2),"")</f>
         <v>44</v>
       </c>
       <c r="I2" s="11"/>
@@ -1811,7 +1873,7 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11">
-        <f t="shared" ref="H30:H35" si="4">IF(WEEKNUM(A30)&gt;0,WEEKNUM(A30),"")</f>
+        <f t="shared" ref="H30:H41" si="4">IF(WEEKNUM(A30)&gt;0,WEEKNUM(A30),"")</f>
         <v>45</v>
       </c>
       <c r="I30" s="11"/>
@@ -1949,86 +2011,158 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="9">
+        <v>41951</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="10">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="11" t="str">
-        <f t="shared" ref="H34:H65" si="5">IF(WEEKNUM(A36)&gt;0,WEEKNUM(A36),"")</f>
-        <v/>
+      <c r="H36" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="9">
+        <v>41951</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H37" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="9">
+        <v>41951</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="10">
+        <v>40</v>
+      </c>
+      <c r="F38" s="10">
+        <v>3</v>
+      </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H38" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="9">
+        <v>41951</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="10">
+        <v>15</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H39" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="9">
+        <v>41951</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="10">
+        <v>10</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="9">
+        <v>41951</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10">
+        <v>30</v>
+      </c>
+      <c r="F41" s="10">
+        <v>3</v>
+      </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="I41" s="11"/>
     </row>
@@ -2041,7 +2175,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H36:H65" si="5">IF(WEEKNUM(A42)&gt;0,WEEKNUM(A42),"")</f>
         <v/>
       </c>
       <c r="I42" s="11"/>
@@ -2859,6 +2993,7 @@
       <c r="I100" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I100"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C100">
@@ -2871,7 +3006,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -2884,7 +3019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -2897,10 +3032,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D36:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D42:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -2913,7 +3048,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -2929,7 +3064,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -2942,7 +3077,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -2958,7 +3093,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -2971,7 +3106,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -2987,7 +3122,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3000,7 +3135,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3016,7 +3151,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3029,7 +3164,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3045,7 +3180,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3058,7 +3193,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3074,7 +3209,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3087,7 +3222,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3103,7 +3238,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3116,7 +3251,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3130,6 +3265,93 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D36:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/WangQ囚徒健身记录.xlsx
+++ b/WangQ囚徒健身记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
   <si>
     <t>六艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,18 @@
   </si>
   <si>
     <t>肩旧伤治疗减少组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意保持小腿与大腿夹角90度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意呼吸/节奏动作继续标准可以适当减少次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +381,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -434,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -458,11 +473,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -600,6 +659,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1080,20 +1199,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H500" sqref="H500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="15.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="35.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1116,24 +1235,24 @@
         <v>15</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>41939</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="10">
         <v>15</v>
@@ -1148,18 +1267,18 @@
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>41939</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="10">
         <v>10</v>
@@ -1174,18 +1293,18 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>41939</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10">
         <v>25</v>
@@ -1200,18 +1319,18 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>41939</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10">
         <v>15</v>
@@ -1226,18 +1345,18 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>41939</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10">
         <v>10</v>
@@ -1252,18 +1371,18 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>41939</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10">
         <v>25</v>
@@ -1278,18 +1397,18 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>41941</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10">
         <v>15</v>
@@ -1304,18 +1423,18 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>41941</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10">
         <v>10</v>
@@ -1330,18 +1449,18 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>41941</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10">
         <v>30</v>
@@ -1356,18 +1475,18 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>41941</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10">
         <v>15</v>
@@ -1382,18 +1501,18 @@
       </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>41941</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10">
         <v>10</v>
@@ -1408,18 +1527,18 @@
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>41941</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="10">
         <v>30</v>
@@ -1434,18 +1553,18 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>41943</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E14" s="10">
         <v>15</v>
@@ -1460,18 +1579,18 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>41943</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E15" s="10">
         <v>10</v>
@@ -1486,18 +1605,18 @@
       </c>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>41943</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="10">
         <v>35</v>
@@ -1512,18 +1631,18 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>41943</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10">
         <v>15</v>
@@ -1538,18 +1657,18 @@
       </c>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>41943</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="10">
         <v>10</v>
@@ -1564,18 +1683,18 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>41943</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="10">
         <v>25</v>
@@ -1590,18 +1709,18 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>41946</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E20" s="10">
         <v>15</v>
@@ -1616,18 +1735,18 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>41946</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E21" s="10">
         <v>10</v>
@@ -1642,18 +1761,18 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>41946</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="10">
         <v>36</v>
@@ -1668,18 +1787,18 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>41946</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10">
         <v>26</v>
@@ -1694,18 +1813,18 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>41946</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="10">
         <v>15</v>
@@ -1720,18 +1839,18 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>41946</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="10">
         <v>10</v>
@@ -1746,18 +1865,18 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>41946</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="10">
         <v>30</v>
@@ -1772,18 +1891,18 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>41947</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E27" s="10">
         <v>15</v>
@@ -1798,18 +1917,18 @@
       </c>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>41947</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E28" s="10">
         <v>10</v>
@@ -1824,18 +1943,18 @@
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>41947</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="10">
         <v>35</v>
@@ -1849,21 +1968,21 @@
         <v>45</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>41949</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="10">
         <v>10</v>
@@ -1878,18 +1997,18 @@
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>41949</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="10">
         <v>15</v>
@@ -1904,18 +2023,18 @@
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>41949</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="10">
         <v>40</v>
@@ -1929,21 +2048,21 @@
         <v>45</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>41949</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="10">
         <v>15</v>
@@ -1958,18 +2077,18 @@
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>41949</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="10">
         <v>10</v>
@@ -1984,18 +2103,18 @@
       </c>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>41949</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="10">
         <v>40</v>
@@ -2008,20 +2127,20 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>41951</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E36" s="10">
         <v>20</v>
@@ -2034,20 +2153,20 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>41951</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E37" s="10">
         <v>15</v>
@@ -2060,20 +2179,20 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>41951</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="10">
         <v>40</v>
@@ -2086,20 +2205,20 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>41951</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="10">
         <v>15</v>
@@ -2112,20 +2231,20 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>41951</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="10">
         <v>10</v>
@@ -2138,20 +2257,20 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>41951</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="10">
         <v>30</v>
@@ -2164,107 +2283,195 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="10">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="11" t="str">
-        <f t="shared" ref="H36:H65" si="5">IF(WEEKNUM(A42)&gt;0,WEEKNUM(A42),"")</f>
-        <v/>
-      </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="H42" s="11">
+        <f t="shared" ref="H42:H47" si="5">IF(WEEKNUM(A42)&gt;0,WEEKNUM(A42),"")</f>
+        <v>46</v>
+      </c>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="10">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="11" t="str">
+      <c r="H43" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="10">
+        <v>40</v>
+      </c>
+      <c r="F44" s="10">
+        <v>3</v>
+      </c>
       <c r="G44" s="11"/>
-      <c r="H44" s="11" t="str">
+      <c r="H44" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="10">
+        <v>10</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="11" t="str">
+      <c r="H45" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="10">
+        <v>20</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="11" t="str">
+      <c r="H46" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="10">
+        <v>25</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="11" t="str">
+      <c r="H47" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>41953</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="10">
+        <v>30</v>
+      </c>
+      <c r="F48" s="10">
+        <v>2</v>
+      </c>
       <c r="G48" s="11"/>
-      <c r="H48" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="H48" s="11">
+        <f t="shared" ref="H48:H111" si="6">IF(WEEKNUM(A48)&gt;0,WEEKNUM(A48),"")</f>
+        <v>46</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2273,12 +2480,12 @@
       <c r="F49" s="10"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2287,12 +2494,12 @@
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2301,12 +2508,12 @@
       <c r="F51" s="10"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2315,12 +2522,12 @@
       <c r="F52" s="10"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2329,12 +2536,12 @@
       <c r="F53" s="10"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2343,12 +2550,12 @@
       <c r="F54" s="10"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2357,12 +2564,12 @@
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2371,12 +2578,12 @@
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2385,12 +2592,12 @@
       <c r="F57" s="10"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2399,12 +2606,12 @@
       <c r="F58" s="10"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2413,12 +2620,12 @@
       <c r="F59" s="10"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2427,12 +2634,12 @@
       <c r="F60" s="10"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2441,12 +2648,12 @@
       <c r="F61" s="10"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2455,12 +2662,12 @@
       <c r="F62" s="10"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2469,12 +2676,12 @@
       <c r="F63" s="10"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2483,12 +2690,12 @@
       <c r="F64" s="10"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2497,12 +2704,12 @@
       <c r="F65" s="10"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2511,12 +2718,12 @@
       <c r="F66" s="10"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="str">
-        <f t="shared" ref="H66:H100" si="6">IF(WEEKNUM(A66)&gt;0,WEEKNUM(A66),"")</f>
-        <v/>
-      </c>
-      <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2528,9 +2735,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2542,9 +2749,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2556,9 +2763,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2570,9 +2777,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2584,9 +2791,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2598,9 +2805,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2612,9 +2819,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2626,9 +2833,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2640,9 +2847,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2654,9 +2861,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2668,9 +2875,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -2682,9 +2889,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2696,9 +2903,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2710,9 +2917,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2724,9 +2931,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2738,9 +2945,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2752,9 +2959,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2766,9 +2973,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2780,9 +2987,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2794,9 +3001,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2808,9 +3015,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2822,9 +3029,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2836,9 +3043,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2850,9 +3057,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2864,9 +3071,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2878,9 +3085,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2892,9 +3099,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2906,9 +3113,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2920,9 +3127,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2934,9 +3141,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2948,9 +3155,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2962,9 +3169,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2976,9 +3183,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2990,7 +3197,2848 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I100" s="11"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H101" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H102" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H103" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H104" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H105" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H106" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H107" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H108" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H109" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H110" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H111" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H112" s="11" t="str">
+        <f t="shared" ref="H112:H175" si="7">IF(WEEKNUM(A112)&gt;0,WEEKNUM(A112),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H113" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H114" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H115" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H116" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H117" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H118" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H119" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H120" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H121" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H122" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H123" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H124" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H125" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H126" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H127" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H128" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H129" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H130" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H131" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H132" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H133" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H134" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H135" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H136" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H137" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H138" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H139" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H140" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H141" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H142" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H143" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H144" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H145" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H146" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H147" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H148" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H149" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H150" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H151" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H152" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H153" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H154" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H155" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H156" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H157" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H158" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H159" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H160" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H161" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H162" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H163" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H164" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H165" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H166" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H167" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H168" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H169" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H170" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H171" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H172" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H173" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H174" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H175" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H176" s="11" t="str">
+        <f t="shared" ref="H176:H239" si="8">IF(WEEKNUM(A176)&gt;0,WEEKNUM(A176),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H177" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H178" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H179" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H180" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H181" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H182" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H183" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H184" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H185" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H186" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H187" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H188" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H189" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H190" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H191" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H192" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H193" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H194" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H195" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H196" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H197" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H198" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H199" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H200" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H201" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H202" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H203" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H204" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H205" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H206" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H207" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H208" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H209" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H210" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H211" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H212" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H213" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H214" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H215" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H216" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H217" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H218" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H219" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H220" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H221" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H222" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H223" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H224" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H225" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H226" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H227" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H228" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H229" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H230" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H231" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H232" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H233" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H234" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H235" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H236" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H237" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H238" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H239" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H240" s="11" t="str">
+        <f t="shared" ref="H240:H303" si="9">IF(WEEKNUM(A240)&gt;0,WEEKNUM(A240),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H241" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H242" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H243" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H244" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H245" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H246" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H247" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H248" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H249" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H250" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H251" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H252" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H253" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H254" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H255" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H256" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H257" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H258" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H259" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H260" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H261" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H262" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H263" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H264" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H265" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H266" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H267" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H268" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H269" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H270" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H271" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H272" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H273" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H274" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H275" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H276" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H277" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H278" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H279" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H280" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H281" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H282" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H283" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H284" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H285" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H286" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H287" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H288" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H289" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H290" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H291" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H292" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H293" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H294" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H295" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H296" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H297" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H298" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H299" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H300" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H301" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H302" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H303" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H304" s="11" t="str">
+        <f t="shared" ref="H304:H367" si="10">IF(WEEKNUM(A304)&gt;0,WEEKNUM(A304),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H305" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H306" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H307" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H308" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H309" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H310" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H311" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H312" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H313" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H314" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H315" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H316" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H317" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H318" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H319" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H320" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H321" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H322" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H323" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H324" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H325" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H326" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H327" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H328" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H329" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H330" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H331" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H332" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H333" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H334" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H335" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H336" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H337" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H338" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H339" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H340" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H341" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H342" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H343" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H344" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H345" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H346" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H347" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H348" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H349" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H350" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H351" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H352" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H353" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H354" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H355" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H356" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H357" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H358" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H359" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H360" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H361" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H362" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H363" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H364" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H365" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H366" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H367" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H368" s="11" t="str">
+        <f t="shared" ref="H368:H431" si="11">IF(WEEKNUM(A368)&gt;0,WEEKNUM(A368),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H369" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H370" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H371" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H372" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H373" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H374" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H375" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H376" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H377" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H378" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H379" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H380" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H381" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H382" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H383" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H384" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H385" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H386" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H387" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H388" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H389" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H390" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H391" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H392" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H393" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H394" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H395" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H396" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H397" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H398" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H399" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H400" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H401" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H402" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H403" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H404" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H405" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H406" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H407" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H408" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H409" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H410" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H411" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H412" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H413" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H414" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H415" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H416" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H417" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H418" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H419" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H420" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H421" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H422" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H423" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H424" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H425" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H426" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H427" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H428" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H429" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H430" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H431" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H432" s="11" t="str">
+        <f t="shared" ref="H432:H495" si="12">IF(WEEKNUM(A432)&gt;0,WEEKNUM(A432),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H433" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H434" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H435" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H436" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H437" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H438" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H439" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H440" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H441" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H442" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H443" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H444" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H445" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H446" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H447" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H448" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H449" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H450" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H451" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H452" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H453" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H454" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H455" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H456" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H457" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H458" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H459" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H460" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H461" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H462" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H463" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H464" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H465" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H466" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H467" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H468" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H469" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H470" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H471" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H472" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H473" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H474" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H475" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H476" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H477" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H478" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H479" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H480" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H481" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H482" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H483" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H484" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H485" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H486" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H487" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H488" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H489" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H490" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H491" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H492" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H493" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H494" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H495" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H496" s="11" t="str">
+        <f t="shared" ref="H496:H559" si="13">IF(WEEKNUM(A496)&gt;0,WEEKNUM(A496),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H497" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H498" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H499" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H500" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H501" s="11"/>
+    </row>
+    <row r="502" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H502" s="11"/>
+    </row>
+    <row r="503" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H503" s="11"/>
+    </row>
+    <row r="504" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H504" s="11"/>
+    </row>
+    <row r="505" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H505" s="11"/>
+    </row>
+    <row r="506" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H506" s="11"/>
+    </row>
+    <row r="507" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H507" s="11"/>
+    </row>
+    <row r="508" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H508" s="11"/>
+    </row>
+    <row r="509" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H509" s="11"/>
+    </row>
+    <row r="510" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H510" s="11"/>
+    </row>
+    <row r="511" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H511" s="11"/>
+    </row>
+    <row r="512" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H512" s="11"/>
+    </row>
+    <row r="513" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H513" s="11"/>
+    </row>
+    <row r="514" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H514" s="11"/>
+    </row>
+    <row r="515" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H515" s="11"/>
+    </row>
+    <row r="516" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H516" s="11"/>
+    </row>
+    <row r="517" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H517" s="11"/>
+    </row>
+    <row r="518" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H518" s="11"/>
+    </row>
+    <row r="519" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H519" s="11"/>
+    </row>
+    <row r="520" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H520" s="11"/>
+    </row>
+    <row r="521" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H521" s="11"/>
+    </row>
+    <row r="522" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H522" s="11"/>
+    </row>
+    <row r="523" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H523" s="11"/>
+    </row>
+    <row r="524" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H524" s="11"/>
+    </row>
+    <row r="525" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H525" s="11"/>
+    </row>
+    <row r="526" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H526" s="11"/>
+    </row>
+    <row r="527" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H527" s="11"/>
+    </row>
+    <row r="528" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H528" s="11"/>
+    </row>
+    <row r="529" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H529" s="11"/>
+    </row>
+    <row r="530" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H530" s="11"/>
+    </row>
+    <row r="531" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H531" s="11"/>
+    </row>
+    <row r="532" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H532" s="11"/>
+    </row>
+    <row r="533" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H533" s="11"/>
+    </row>
+    <row r="534" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H534" s="11"/>
+    </row>
+    <row r="535" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H535" s="11"/>
+    </row>
+    <row r="536" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H536" s="11"/>
+    </row>
+    <row r="537" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H537" s="11"/>
+    </row>
+    <row r="538" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H538" s="11"/>
+    </row>
+    <row r="539" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H539" s="11"/>
+    </row>
+    <row r="540" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H540" s="11"/>
+    </row>
+    <row r="541" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H541" s="11"/>
+    </row>
+    <row r="542" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H542" s="11"/>
+    </row>
+    <row r="543" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H543" s="11"/>
+    </row>
+    <row r="544" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H544" s="11"/>
+    </row>
+    <row r="545" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H545" s="11"/>
+    </row>
+    <row r="546" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H546" s="11"/>
+    </row>
+    <row r="547" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H547" s="11"/>
+    </row>
+    <row r="548" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H548" s="11"/>
+    </row>
+    <row r="549" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H549" s="11"/>
+    </row>
+    <row r="550" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H550" s="11"/>
+    </row>
+    <row r="551" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H551" s="11"/>
+    </row>
+    <row r="552" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H552" s="11"/>
+    </row>
+    <row r="553" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H553" s="11"/>
+    </row>
+    <row r="554" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H554" s="11"/>
+    </row>
+    <row r="555" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H555" s="11"/>
+    </row>
+    <row r="556" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H556" s="11"/>
+    </row>
+    <row r="557" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H557" s="11"/>
+    </row>
+    <row r="558" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H558" s="11"/>
+    </row>
+    <row r="559" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H559" s="11"/>
+    </row>
+    <row r="560" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H560" s="11"/>
+    </row>
+    <row r="561" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H561" s="11"/>
+    </row>
+    <row r="562" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H562" s="11"/>
+    </row>
+    <row r="563" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H563" s="11"/>
+    </row>
+    <row r="564" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H564" s="11"/>
+    </row>
+    <row r="565" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H565" s="11"/>
+    </row>
+    <row r="566" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H566" s="11"/>
+    </row>
+    <row r="567" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H567" s="11"/>
+    </row>
+    <row r="568" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H568" s="11"/>
+    </row>
+    <row r="569" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H569" s="11"/>
+    </row>
+    <row r="570" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H570" s="11"/>
+    </row>
+    <row r="571" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H571" s="11"/>
+    </row>
+    <row r="572" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H572" s="11"/>
+    </row>
+    <row r="573" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H573" s="11"/>
+    </row>
+    <row r="574" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H574" s="11"/>
+    </row>
+    <row r="575" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H575" s="11"/>
+    </row>
+    <row r="576" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H576" s="11"/>
+    </row>
+    <row r="577" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H577" s="11"/>
+    </row>
+    <row r="578" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H578" s="11"/>
+    </row>
+    <row r="579" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H579" s="11"/>
+    </row>
+    <row r="580" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H580" s="11"/>
+    </row>
+    <row r="581" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H581" s="11"/>
+    </row>
+    <row r="582" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H582" s="11"/>
+    </row>
+    <row r="583" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H583" s="11"/>
+    </row>
+    <row r="584" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H584" s="11"/>
+    </row>
+    <row r="585" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H585" s="11"/>
+    </row>
+    <row r="586" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H586" s="11"/>
+    </row>
+    <row r="587" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H587" s="11"/>
+    </row>
+    <row r="588" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H588" s="11"/>
+    </row>
+    <row r="589" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H589" s="11"/>
+    </row>
+    <row r="590" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H590" s="11"/>
+    </row>
+    <row r="591" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H591" s="11"/>
+    </row>
+    <row r="592" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H592" s="11"/>
+    </row>
+    <row r="593" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H593" s="11"/>
+    </row>
+    <row r="594" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H594" s="11"/>
+    </row>
+    <row r="595" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H595" s="11"/>
+    </row>
+    <row r="596" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H596" s="11"/>
+    </row>
+    <row r="597" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H597" s="11"/>
+    </row>
+    <row r="598" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H598" s="11"/>
+    </row>
+    <row r="599" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H599" s="11"/>
+    </row>
+    <row r="600" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H600" s="11"/>
+    </row>
+    <row r="601" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H601" s="11"/>
+    </row>
+    <row r="602" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H602" s="11"/>
+    </row>
+    <row r="603" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H603" s="11"/>
+    </row>
+    <row r="604" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H604" s="11"/>
+    </row>
+    <row r="605" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H605" s="11"/>
+    </row>
+    <row r="606" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H606" s="11"/>
+    </row>
+    <row r="607" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H607" s="11"/>
+    </row>
+    <row r="608" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H608" s="11"/>
+    </row>
+    <row r="609" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H609" s="11"/>
+    </row>
+    <row r="610" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H610" s="11"/>
+    </row>
+    <row r="611" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H611" s="11"/>
+    </row>
+    <row r="612" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H612" s="11"/>
+    </row>
+    <row r="613" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H613" s="11"/>
+    </row>
+    <row r="614" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H614" s="11"/>
+    </row>
+    <row r="615" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H615" s="11"/>
+    </row>
+    <row r="616" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H616" s="11"/>
+    </row>
+    <row r="617" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H617" s="11"/>
+    </row>
+    <row r="618" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H618" s="11"/>
+    </row>
+    <row r="619" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H619" s="11"/>
+    </row>
+    <row r="620" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H620" s="11"/>
+    </row>
+    <row r="621" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H621" s="11"/>
+    </row>
+    <row r="622" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H622" s="11"/>
+    </row>
+    <row r="623" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H623" s="11"/>
+    </row>
+    <row r="624" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H624" s="11"/>
+    </row>
+    <row r="625" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H625" s="11"/>
+    </row>
+    <row r="626" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H626" s="11"/>
+    </row>
+    <row r="627" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H627" s="11"/>
+    </row>
+    <row r="628" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H628" s="11"/>
+    </row>
+    <row r="629" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H629" s="11"/>
+    </row>
+    <row r="630" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H630" s="11"/>
+    </row>
+    <row r="631" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H631" s="11"/>
+    </row>
+    <row r="632" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H632" s="11"/>
+    </row>
+    <row r="633" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H633" s="11"/>
+    </row>
+    <row r="634" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H634" s="11"/>
+    </row>
+    <row r="635" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H635" s="11"/>
+    </row>
+    <row r="636" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H636" s="11"/>
+    </row>
+    <row r="637" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H637" s="11"/>
+    </row>
+    <row r="638" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H638" s="11"/>
+    </row>
+    <row r="639" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H639" s="11"/>
+    </row>
+    <row r="640" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H640" s="11"/>
+    </row>
+    <row r="641" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H641" s="11"/>
+    </row>
+    <row r="642" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H642" s="11"/>
+    </row>
+    <row r="643" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H643" s="11"/>
+    </row>
+    <row r="644" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H644" s="11"/>
+    </row>
+    <row r="645" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H645" s="11"/>
+    </row>
+    <row r="646" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H646" s="11"/>
+    </row>
+    <row r="647" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H647" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I100"/>
@@ -3001,12 +6049,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{50B0DC69-0372-4CA8-BC83-26932F42C37F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3019,7 +6067,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{DB99BBAE-0513-4F11-BD3A-DC1F28802628}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3032,10 +6080,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D19 D42:D1048576</xm:sqref>
+          <xm:sqref>D1:D19 D49:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
+          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{06520018-C423-4BFE-A6DE-4A76A7815E23}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3048,7 +6096,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
+          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{5F51F62C-FFD7-4BF3-BEED-9F3051450505}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3064,7 +6112,7 @@
           <xm:sqref>D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
+          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{D5A54FB9-4C01-4AAE-A855-441E109A6C67}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3077,7 +6125,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{AE132ECB-9464-41EA-A6BE-A2D50D896E91}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3093,7 +6141,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
+          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{E3B17E18-10FF-419D-AD48-273DE8F3A144}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3106,7 +6154,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
+          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{C779D622-B614-409E-A029-83BDD2B67B11}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3122,7 +6170,7 @@
           <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
+          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{2053232A-E6DF-4434-AB78-26AAD5384DB7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3135,7 +6183,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{701035FF-55DC-4B14-B5AA-180B99DA7732}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3151,7 +6199,7 @@
           <xm:sqref>D24:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{15E5BACF-C16F-40EF-92C9-829E23498BD7}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3164,7 +6212,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
+          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{DB969D45-3A47-44B1-B74D-8BE63D080C46}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3180,7 +6228,7 @@
           <xm:sqref>D27:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
+          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{E8F2A27A-F9EF-4E77-9DF8-58A4AA28FC69}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3193,7 +6241,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{5BEEEE21-0493-460E-8C01-1BD949797ACF}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3209,7 +6257,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
+          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{B71E03BB-9A90-45AB-A58C-8971BD2DC6BD}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3222,7 +6270,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
+          <x14:cfRule type="cellIs" priority="18" stopIfTrue="1" operator="equal" id="{49A4AB83-266A-4079-86C2-14CB9B9DD5AE}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3238,7 +6286,7 @@
           <xm:sqref>D30:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{F50F8D5A-4B58-47E0-865E-FD4FE2A2B2CB}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3251,7 +6299,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{F86815C9-AA65-403A-A552-D68B6F42DF5A}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3267,7 +6315,7 @@
           <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{C418D6D3-72D0-4BAD-9783-DE91CF03DB97}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3280,7 +6328,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{5940993E-70F1-49BE-BF52-1FAFD42C60F2}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3296,7 +6344,7 @@
           <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{59D1056A-A16F-4F9F-B3E8-79C07AC60AC5}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3309,7 +6357,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{4136C99D-E1EA-439D-8352-93A7669EF87E}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3325,7 +6373,7 @@
           <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{3CA40F1C-5D95-4422-8825-8440399B834F}">
             <xm:f>数据项!$C$15</xm:f>
             <x14:dxf>
               <font>
@@ -3338,7 +6386,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{CBE2E7E8-1514-4226-A61E-BDD6EB4F9181}">
             <xm:f>数据项!$B$15</xm:f>
             <x14:dxf>
               <font>
@@ -3352,6 +6400,122 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D39:D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{7264D377-62DE-4DB0-B5E4-BA222E7C3A0A}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{F8ACA252-CF87-41B9-97DD-E4F9B613784C}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D42:D43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{7DFE73A6-CFDC-4EEE-8259-D9421DA39BA8}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{BF4584E5-603E-441B-B48D-E6F016E30967}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{5A88DFF3-D8D8-45D8-8ABF-E98B27F6399B}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{F0DE6890-BA6A-4D98-A17A-A5966AA80495}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D45:D47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{48F4FACB-9B8F-4D30-8B20-C27C014584E1}">
+            <xm:f>数据项!$C$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{3678E79E-B45A-4C17-8285-654B9275C6BA}">
+            <xm:f>数据项!$B$15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3380,13 +6544,14 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
@@ -3415,7 +6580,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
@@ -3430,7 +6595,7 @@
         <f t="shared" ref="H2:H33" si="0">IF(WEEKNUM(A2)&gt;0,WEEKNUM(A2),"")</f>
         <v/>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -3444,7 +6609,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
@@ -3458,7 +6623,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -3472,7 +6637,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -3486,7 +6651,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
@@ -3500,7 +6665,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
@@ -3514,7 +6679,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -3528,7 +6693,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -3542,7 +6707,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -3556,7 +6721,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -3570,7 +6735,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
@@ -3584,7 +6749,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -3598,7 +6763,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -3612,7 +6777,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
@@ -3626,7 +6791,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
@@ -3640,7 +6805,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
@@ -3654,7 +6819,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
@@ -3668,7 +6833,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
@@ -3682,7 +6847,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
@@ -3696,7 +6861,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
@@ -3710,7 +6875,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
@@ -3724,7 +6889,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
@@ -3738,7 +6903,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
@@ -3752,7 +6917,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
@@ -3766,7 +6931,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
@@ -3780,7 +6945,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="11"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
@@ -3794,7 +6959,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
@@ -3808,7 +6973,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="11"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
@@ -3822,7 +6987,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="11"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
@@ -3836,7 +7001,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="11"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
@@ -3850,7 +7015,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="11"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
@@ -3864,7 +7029,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
@@ -3878,7 +7043,7 @@
         <f t="shared" ref="H34:H65" si="1">IF(WEEKNUM(A34)&gt;0,WEEKNUM(A34),"")</f>
         <v/>
       </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
@@ -3892,7 +7057,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
@@ -3906,7 +7071,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
@@ -3920,7 +7085,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I37" s="11"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
@@ -3934,7 +7099,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -3948,7 +7113,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -3962,7 +7127,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -3976,7 +7141,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I41" s="11"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -3990,7 +7155,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -4004,7 +7169,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -4018,7 +7183,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I44" s="11"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
@@ -4032,7 +7197,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I45" s="11"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
@@ -4046,7 +7211,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
@@ -4060,7 +7225,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I47" s="11"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
@@ -4074,7 +7239,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I48" s="11"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
@@ -4088,7 +7253,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I49" s="11"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
@@ -4102,7 +7267,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I50" s="11"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
@@ -4116,7 +7281,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I51" s="11"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
@@ -4130,7 +7295,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I52" s="11"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
@@ -4144,7 +7309,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I53" s="11"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
@@ -4158,7 +7323,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I54" s="11"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
@@ -4172,7 +7337,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I55" s="11"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
@@ -4186,7 +7351,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I56" s="11"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
@@ -4200,7 +7365,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I57" s="11"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
@@ -4214,7 +7379,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I58" s="11"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
@@ -4228,7 +7393,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I59" s="11"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
@@ -4242,7 +7407,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I60" s="11"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
@@ -4256,7 +7421,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I61" s="11"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
@@ -4270,7 +7435,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I62" s="11"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
@@ -4284,7 +7449,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I63" s="11"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
@@ -4298,7 +7463,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I64" s="11"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
@@ -4312,7 +7477,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I65" s="11"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
@@ -4326,7 +7491,7 @@
         <f t="shared" ref="H66:H100" si="2">IF(WEEKNUM(A66)&gt;0,WEEKNUM(A66),"")</f>
         <v/>
       </c>
-      <c r="I66" s="11"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
@@ -4340,7 +7505,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="11"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
@@ -4354,7 +7519,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="11"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
@@ -4368,7 +7533,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="11"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
@@ -4382,7 +7547,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="11"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
@@ -4396,7 +7561,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="11"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
@@ -4410,7 +7575,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="11"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
@@ -4424,7 +7589,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I73" s="11"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
@@ -4438,7 +7603,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I74" s="11"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
@@ -4452,7 +7617,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I75" s="11"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
@@ -4466,7 +7631,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I76" s="11"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
@@ -4480,7 +7645,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I77" s="11"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
@@ -4494,7 +7659,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I78" s="11"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
@@ -4508,7 +7673,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I79" s="11"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
@@ -4522,7 +7687,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I80" s="11"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
@@ -4536,7 +7701,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I81" s="11"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
@@ -4550,7 +7715,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I82" s="11"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
@@ -4564,7 +7729,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I83" s="11"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
@@ -4578,7 +7743,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I84" s="11"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
@@ -4592,7 +7757,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I85" s="11"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
@@ -4606,7 +7771,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I86" s="11"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A87" s="10"/>
@@ -4620,7 +7785,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I87" s="11"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A88" s="10"/>
@@ -4634,7 +7799,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I88" s="11"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
@@ -4648,7 +7813,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I89" s="11"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
@@ -4662,7 +7827,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I90" s="11"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
@@ -4676,7 +7841,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I91" s="11"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
@@ -4690,7 +7855,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I92" s="11"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
@@ -4704,7 +7869,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I93" s="11"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
@@ -4718,7 +7883,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I94" s="11"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
@@ -4732,7 +7897,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I95" s="11"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
@@ -4746,7 +7911,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I96" s="11"/>
+      <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
@@ -4760,7 +7925,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I97" s="11"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
@@ -4774,7 +7939,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I98" s="11"/>
+      <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
@@ -4788,7 +7953,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I99" s="11"/>
+      <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
@@ -4802,7 +7967,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I100" s="11"/>
+      <c r="I100" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4930,216 +8095,216 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5151,10 +8316,10 @@
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
